--- a/MWVB.xlsx
+++ b/MWVB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zexixing/Library/Mobile Documents/com~apple~CloudDocs/Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zexixing/Library/Mobile Documents/com~apple~CloudDocs/Files/Daily-Improvements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03896AE6-0A4A-3740-BFD8-74FAB9FE056B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7FFCBD-E438-BA4D-A066-F8774182AFCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2740" windowWidth="27640" windowHeight="16940" xr2:uid="{2A144509-7B0A-F24E-90A2-5FC93BAA2554}"/>
+    <workbookView xWindow="10240" yWindow="1100" windowWidth="27640" windowHeight="16940" xr2:uid="{2A144509-7B0A-F24E-90A2-5FC93BAA2554}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="181">
   <si>
     <t>benediction</t>
   </si>
@@ -409,6 +409,171 @@
   </si>
   <si>
     <t>long-winded</t>
+  </si>
+  <si>
+    <t>mania</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>kleptomania</t>
+  </si>
+  <si>
+    <t>dipsomaniac</t>
+  </si>
+  <si>
+    <t>maniac; manic; manic-depressive; bipolar disorder ~ manic-depressive</t>
+  </si>
+  <si>
+    <t>binge; blackouts; goes on and on and on</t>
+  </si>
+  <si>
+    <t>megalomaniac</t>
+  </si>
+  <si>
+    <t>egomaniac</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>unimpressive; grandiose; blowhard; know-it-all</t>
+  </si>
+  <si>
+    <t>psych</t>
+  </si>
+  <si>
+    <t>psychiatry; psychiatrist</t>
+  </si>
+  <si>
+    <t>psyche</t>
+  </si>
+  <si>
+    <t>redeeming</t>
+  </si>
+  <si>
+    <t>psychedelic</t>
+  </si>
+  <si>
+    <t>hallucinations; psilocybin; mescaline; peyote cactus</t>
+  </si>
+  <si>
+    <t>psychososmatic</t>
+  </si>
+  <si>
+    <t>psychotherapist</t>
+  </si>
+  <si>
+    <t>counseling</t>
+  </si>
+  <si>
+    <t>afflicted; dictator; democratically; insult; deluded</t>
+  </si>
+  <si>
+    <t>cept</t>
+  </si>
+  <si>
+    <t>take, seize</t>
+  </si>
+  <si>
+    <t>breath, life, soul</t>
+  </si>
+  <si>
+    <t>captor, captive, captivate</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>reception</t>
+  </si>
+  <si>
+    <t>perceptible</t>
+  </si>
+  <si>
+    <t>perceptive; perception; perceptible;</t>
+  </si>
+  <si>
+    <t>susceptible</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>finale</t>
+  </si>
+  <si>
+    <t>end; boundary</t>
+  </si>
+  <si>
+    <t>confine</t>
+  </si>
+  <si>
+    <t>potholes</t>
+  </si>
+  <si>
+    <t>definitive</t>
+  </si>
+  <si>
+    <t>finite</t>
+  </si>
+  <si>
+    <t>infinitesimal</t>
+  </si>
+  <si>
+    <t>ject</t>
+  </si>
+  <si>
+    <t>inject</t>
+  </si>
+  <si>
+    <t>throw, hurl</t>
+  </si>
+  <si>
+    <t>interject</t>
+  </si>
+  <si>
+    <t>guerrillas</t>
+  </si>
+  <si>
+    <t>conjecture</t>
+  </si>
+  <si>
+    <t>projection</t>
+  </si>
+  <si>
+    <t>trajectory</t>
+  </si>
+  <si>
+    <t>tract</t>
+  </si>
+  <si>
+    <t>tractor; gliding</t>
+  </si>
+  <si>
+    <t>drag, draw</t>
+  </si>
+  <si>
+    <t>traction</t>
+  </si>
+  <si>
+    <t>retract</t>
+  </si>
+  <si>
+    <t>claws; paws; retraction; accuser</t>
+  </si>
+  <si>
+    <t>protracted</t>
+  </si>
+  <si>
+    <t>intractable</t>
   </si>
 </sst>
 </file>
@@ -767,567 +932,1308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A3EBF6-91A1-AD47-A3E4-E840689A3E4B}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>92</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>93</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>94</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>95</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E20" t="s">
         <v>99</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E21" t="s">
         <v>105</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D22" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E22" t="s">
         <v>104</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E24" t="s">
         <v>101</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E25" t="s">
         <v>102</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D26" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E27" t="s">
         <v>103</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D29" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E29" t="s">
         <v>110</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D30" t="s">
         <v>54</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D31" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E31" t="s">
         <v>111</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D34" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E34" t="s">
         <v>114</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F34" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D35" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E35" t="s">
         <v>115</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D36" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E36" t="s">
         <v>116</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D37" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E37" t="s">
         <v>117</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>72</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E38" t="s">
         <v>122</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E39" t="s">
         <v>123</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>76</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E40" t="s">
         <v>118</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>78</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E41" t="s">
         <v>125</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F41" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>85</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E42" t="s">
         <v>119</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E43" t="s">
         <v>120</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E44" t="s">
         <v>121</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>91</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E45" t="s">
         <v>124</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" t="s">
-        <v>112</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>173</v>
+      </c>
+      <c r="F71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
